--- a/RAISE_NO_MERGE.xlsx
+++ b/RAISE_NO_MERGE.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="615">
   <si>
     <t>Source</t>
   </si>
@@ -1805,7 +1805,7 @@
     <t>[[Abstract: "machine learning"] OR [Abstract: "artificial intelligence"]] AND [[Abstract: risk] OR [Abstract: harm] OR [Abstract: hazard]] AND [Abstract: ethic*] AND [Publication Date: (01/01/2005 TO 06/30/2020)]</t>
   </si>
   <si>
-    <t>[[Abstract: "machine learning"] OR [Abstract: "artificial intelligence"]] AND [[Abstract: risk] OR [Abstract: harm] OR [Abstract: hazard]] AND [Abstract: ethic*] AND [Publication Date: (01/01/2005 TO 06/30/2020)] ((("Abstract":risk OR harm OR hazard ) AND "Abstract":"machine learning" OR "artificial intelligence") AND "Abstract":ethic*)</t>
+    <t>[[Abstract: "machine learning"] OR [Abstract: "artificial intelligence"]] AND [[Abstract: risk] OR [Abstract: harm] OR [Abstract: hazard]] AND [Abstract: ethic*] AND [Publication Date: (01/01/2005 TO 06/30/2020)] ##### ((("Abstract":risk OR harm OR hazard ) AND "Abstract":"machine learning" OR "artificial intelligence") AND "Abstract":ethic*)</t>
   </si>
   <si>
     <t>Ching-Hua Chuan, Wan-Hsiu Sunny Tsai, and Su Yeon Cho. 2019. Framing Artificial Intelligence in American Newspapers. In Proceedings of the 2019 AAAI/ACM Conference on AI, Ethics, and Society (AIES ’19). Association for Computing Machinery, New York, NY, USA, 339–344. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3306618.3314285</t>
@@ -1928,28 +1928,67 @@
     <t>Donald McMillan and Barry Brown. 2019. Against Ethical AI. In Proceedings of the Halfway to the Future Symposium 2019 (HTTF 2019). Association for Computing Machinery, New York, NY, USA, Article 9, 1–3. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3363384.3363393</t>
   </si>
   <si>
+    <t>D. E. Schrader and D. Ghosh, "Proactively Protecting Against the Singularity: Ethical Decision Making in AI," in IEEE Security &amp; Privacy, vol. 16, no. 3, pp. 56-63, May/June 2018. doi: 10.1109/MSP.2018.2701169 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=8395130&amp;isnumber=8394982</t>
+  </si>
+  <si>
     <t>Ezinne Nwankwo and Belona Sonna. 2019. Africa’s social contract with AI. XRDS 26, 2 (Winter 2019), 44–48. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3368073</t>
   </si>
   <si>
+    <t>N. Hutchins, Z. Kirkendoll and L. Hook, "Social impacts of ethical artifical intelligence and autonomous system design," 2017 IEEE International Systems Engineering Symposium (ISSE), Vienna, 2017, pp. 1-5. doi: 10.1109/SysEng.2017.8088298 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=8088298&amp;isnumber=8088244</t>
+  </si>
+  <si>
     <t>Annie Zhou. 2019. The intersection of ethics and AI. AI Matters 5, 3 (September 2019), 64–69. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3362077.3362087</t>
   </si>
   <si>
+    <t>M. Anderson and S. L. Anderson, "Guest Editors' Introduction: Machine Ethics," in IEEE Intelligent Systems, vol. 21, no. 4, pp. 10-11, July-Aug. 2006. doi: 10.1109/MIS.2006.70 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1667946&amp;isnumber=34917</t>
+  </si>
+  <si>
     <t>Patrick Lin. 2018. AI Decisions, Risk, and Ethics: Beyond Value Alignment. In Proceedings of the 2018 AAAI/ACM Conference on AI, Ethics, and Society (AIES ’18). Association for Computing Machinery, New York, NY, USA, 2. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3278721.3278806</t>
   </si>
   <si>
+    <t>A. Ghandour and B. J. Woodford, "Ethical Issues in Artificial Intelligence in UAE," 2019 International Arab Conference on Information Technology (ACIT), Al Ain, United Arab Emirates, 2019, pp. 262-266. doi: 10.1109/ACIT47987.2019.8990997 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=8990997&amp;isnumber=8990967</t>
+  </si>
+  <si>
     <t>Colin Garvey. 2018. AI Risk Mitigation Through Democratic Governance: Introducing the 7-Dimensional AI Risk Horizon. In Proceedings of the 2018 AAAI/ACM Conference on AI, Ethics, and Society (AIES ’18). Association for Computing Machinery, New York, NY, USA, 366–367. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3278721.3278801</t>
   </si>
   <si>
+    <t>C. Addis and M. Kutar, "AI Management An Exploratory Survey of the Influence of GDPR and FAT Principles," 2019 IEEE SmartWorld, Ubiquitous Intelligence &amp; Computing, Advanced &amp; Trusted Computing, Scalable Computing &amp; Communications, Cloud &amp; Big Data Computing, Internet of People and Smart City Innovation (SmartWorld/SCALCOM/UIC/ATC/CBDCom/IOP/SCI), Leicester, United Kingdom, 2019, pp. 342-347. doi: 10.1109/SmartWorld-UIC-ATC-SCALCOM-IOP-SCI.2019.00102 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=9060413&amp;isnumber=9060076</t>
+  </si>
+  <si>
+    <t>D. Peters, K. Vold, D. Robinson and R. A. Calvo, "Responsible AI—Two Frameworks for Ethical Design Practice," in IEEE Transactions on Technology and Society, vol. 1, no. 1, pp. 34-47, March 2020. doi: 10.1109/TTS.2020.2974991 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=9001063&amp;isnumber=8995808</t>
+  </si>
+  <si>
     <t>Andreas Huber, Astrid Weiss, and Marjo Rauhala. 2016. The Ethical Risk of Attachment: How to Identify, Investigate and Predict Potential Ethical Risks in the Development of Social Companion Robots. In The Eleventh ACM/IEEE International Conference on Human Robot Interaction (HRI ’16). IEEE Press, 367–374.</t>
   </si>
   <si>
+    <t>M. Anderson, S. L. Anderson and C. Armen, "An Approach to Computing Ethics," in IEEE Intelligent Systems, vol. 21, no. 4, pp. 56-63, July-Aug. 2006. doi: 10.1109/MIS.2006.64 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1667955&amp;isnumber=34917</t>
+  </si>
+  <si>
+    <t>K. Souali, A. El Afia and R. Faizi, "An automatic ethical-based recommender system for e-commerce," 2011 International Conference on Multimedia Computing and Systems, Ouarzazate, 2011, pp. 1-4. doi: 10.1109/ICMCS.2011.5945631 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=5945631&amp;isnumber=5945564</t>
+  </si>
+  <si>
     <t>Corinne Cath, Mark Latonero, Vidushi Marda, and Roya Pakzad. 2020. Leap of FATE: human rights as a complementary framework for AI policy and practice. In Proceedings of the 2020 Conference on Fairness, Accountability, and Transparency (FAT* ’20). Association for Computing Machinery, New York, NY, USA, 702. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3351095.3375665</t>
   </si>
   <si>
+    <t>G. Adamson, J. C. Havens and R. Chatila, "Designing a Value-Driven Future for Ethical Autonomous and Intelligent Systems," in Proceedings of the IEEE, vol. 107, no. 3, pp. 518-525, March 2019. doi: 10.1109/JPROC.2018.2884923 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=8610013&amp;isnumber=8662725</t>
+  </si>
+  <si>
     <t>Aaron D. Tucker, Markus Anderljung, and Allan Dafoe. 2020. Social and Governance Implications of Improved Data Efficiency. In Proceedings of the AAAI/ACM Conference on AI, Ethics, and Society (AIES ’20). Association for Computing Machinery, New York, NY, USA, 378–384. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3375627.3375863</t>
   </si>
   <si>
+    <t>J. H. Moor, "The Nature, Importance, and Difficulty of Machine Ethics," in IEEE Intelligent Systems, vol. 21, no. 4, pp. 18-21, July-Aug. 2006. doi: 10.1109/MIS.2006.80 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1667948&amp;isnumber=34917</t>
+  </si>
+  <si>
     <t>Olivia J. Erdélyi and Gábor Erdélyi. 2020. The AI Liability Puzzle and a Fund-Based Work-Around. In Proceedings of the AAAI/ACM Conference on AI, Ethics, and Society (AIES ’20). Association for Computing Machinery, New York, NY, USA, 50–56. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3375627.3375806</t>
+  </si>
+  <si>
+    <t>M. Rolf, N. Crook and J. Steil, "From social interaction to ethical AI: a developmental roadmap," 2018 Joint IEEE 8th International Conference on Development and Learning and Epigenetic Robotics (ICDL-EpiRob), Tokyo, Japan, 2018, pp. 204-211. doi: 10.1109/DEVLRN.2018.8761023 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=8761023&amp;isnumber=8760502</t>
+  </si>
+  <si>
+    <t>C. Allen, W. Wallach and I. Smit, "Why Machine Ethics?," in IEEE Intelligent Systems, vol. 21, no. 4, pp. 12-17, July-Aug. 2006. doi: 10.1109/MIS.2006.83 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1667947&amp;isnumber=34917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Mageswaran, S. D. Nagappan, N. Hamzah and S. N. Brohi, "Machine Learning: An Ethical, Social &amp; Political Perspective," 2018 Fourth International Conference on Advances in Computing, Communication &amp; Automation (ICACCA), Subang Jaya, Malaysia, 2018, pp. 1-6. doi: 10.1109/ICACCAF.2018.8776702 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=8776702&amp;isnumber=8776677 </t>
   </si>
   <si>
     <t>Michael Veale, Max Van Kleek, and Reuben Binns. 2018. Fairness and Accountability Design Needs for Algorithmic Support in High-Stakes Public Sector Decision-Making. In Proceedings of the 2018 CHI Conference on Human Factors in Computing Systems (CHI ’18). Association for Computing Machinery, New York, NY, USA, Paper 440, 1–14. DOI:https://doi-org.proxy3.library.mcgill.ca/10.1145/3173574.3174014</t>
@@ -1992,7 +2031,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2033,6 +2072,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+    </font>
+    <font/>
     <font>
       <b/>
       <sz val="10.0"/>
@@ -2088,7 +2131,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2151,25 +2194,31 @@
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -16457,7 +16506,7 @@
       <c r="B2" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="22" t="s">
         <v>544</v>
       </c>
       <c r="D2" s="9"/>
@@ -16528,8 +16577,8 @@
         <v>35.0</v>
       </c>
       <c r="C4" s="11">
-        <f>13+8</f>
-        <v>21</v>
+        <f>13+8+6+6+1</f>
+        <v>34</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -16854,7 +16903,9 @@
       <c r="B47" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="23" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="13"/>
@@ -16864,9 +16915,11 @@
     <row r="49">
       <c r="A49" s="12"/>
       <c r="B49" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="C49" s="13"/>
+        <v>583</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="13"/>
@@ -16876,9 +16929,11 @@
     <row r="51">
       <c r="A51" s="12"/>
       <c r="B51" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="C51" s="13"/>
+        <v>585</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="13"/>
@@ -16888,9 +16943,11 @@
     <row r="53">
       <c r="A53" s="12"/>
       <c r="B53" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="C53" s="13"/>
+        <v>587</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="13"/>
@@ -16900,9 +16957,11 @@
     <row r="55">
       <c r="A55" s="12"/>
       <c r="B55" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="C55" s="13"/>
+        <v>589</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="13"/>
@@ -16914,7 +16973,9 @@
       <c r="B57" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="23" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="13"/>
@@ -16924,9 +16985,11 @@
     <row r="59">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="C59" s="13"/>
+        <v>592</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="13"/>
@@ -16938,7 +17001,9 @@
       <c r="B61" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="23" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="13"/>
@@ -16948,9 +17013,11 @@
     <row r="63">
       <c r="A63" s="12"/>
       <c r="B63" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C63" s="13"/>
+        <v>595</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="13"/>
@@ -16960,9 +17027,11 @@
     <row r="65">
       <c r="A65" s="12"/>
       <c r="B65" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="C65" s="13"/>
+        <v>597</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="13"/>
@@ -16972,9 +17041,11 @@
     <row r="67">
       <c r="A67" s="12"/>
       <c r="B67" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="C67" s="13"/>
+        <v>599</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="13"/>
@@ -16986,7 +17057,9 @@
       <c r="B69" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="23" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="13"/>
@@ -16998,7 +17071,9 @@
       <c r="B71" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="23" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="13"/>
@@ -17008,7 +17083,7 @@
     <row r="73">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="C73" s="13"/>
     </row>
@@ -21679,100 +21754,100 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="B1" s="23">
+      <c r="A1" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="25">
         <f>SUM('Transparency '!C3,Fairness!C3,'Non-maleficience'!C3,Responsibility!C3, Privacy!C3, Beneficience!C3, Trust!C3, Freedom!C3, Sustainability!C3, Dignity!C3, Solidarity!C3, Risk!C3)</f>
         <v>2211</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="26">
         <f>SUM('Transparency '!B3,Fairness!B3,'Non-maleficience'!B3,Responsibility!B3, Privacy!B3, Beneficience!B3, Trust!B3, Freedom!B3, Sustainability!B3, Dignity!B3, Solidarity!B3, Risk!B3)</f>
         <v>4060</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="28">
         <f>sum(B1:B2)</f>
         <v>6271</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="A4" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" s="29">
         <f>C8+Solidarity!C4+Dignity!C4+Sustainability!C4+Freedom!C4+Trust!C4+Beneficience!C4+Privacy!C4+Responsibility!C4+'Non-maleficience'!C4+Fairness!C4+'Transparency '!C4</f>
         <v>132</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="B5" s="26">
         <f>SUM('Transparency '!B4,Fairness!B4,'Non-maleficience'!B4,Responsibility!B4, Privacy!B4, Beneficience!B4, Trust!B4, Freedom!B4, Sustainability!B4, Dignity!B4, Solidarity!B4)</f>
         <v>484</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="B6" s="31">
         <v>101.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="s">
-        <v>597</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="B7" s="31">
         <v>23.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="A8" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="B8" s="32">
         <f>sum(B4:B7)</f>
         <v>740</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="33">
         <f>Risk!C4</f>
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="B10" s="33">
         <f>Risk!B4</f>
         <v>35</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="B11" s="32">
         <f>sum(B9:B10)</f>
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
